--- a/Administrative/BOM.xlsx
+++ b/Administrative/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcogonzalez/Documents/repos/CroQuest/Administrative/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49792136-5D02-A44B-A433-37FEF4B4F4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23DB5A9-BE6A-D542-8F85-3E1A38D22D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11040" yWindow="880" windowWidth="30080" windowHeight="24100" xr2:uid="{4F729021-1A8F-5745-8679-F9B549C3D465}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="89">
   <si>
     <t>Part</t>
   </si>
@@ -320,6 +320,12 @@
   </si>
   <si>
     <t>B07VQF8P2Y</t>
+  </si>
+  <si>
+    <t>BC10.0KXCT-ND</t>
+  </si>
+  <si>
+    <t>10K Ohm Resistor</t>
   </si>
 </sst>
 </file>
@@ -1496,6 +1502,9 @@
                 <c:pt idx="18">
                   <c:v>D-Pad Buttons + Start Button</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>10K Ohm Resistor</c:v>
+                </c:pt>
                 <c:pt idx="22">
                   <c:v>Industrial Designer Pay</c:v>
                 </c:pt>
@@ -1564,6 +1573,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1.6980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.61729999999999996</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
@@ -2563,14 +2575,14 @@
   <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="276" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
@@ -3190,13 +3202,27 @@
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="10"/>
+      <c r="B24" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="4">
+        <v>6.173E-2</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G24" s="4">
+        <f>E24*F24</f>
+        <v>92.594999999999999</v>
+      </c>
+      <c r="H24" s="4">
+        <f>G24/$H$3</f>
+        <v>0.61729999999999996</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
@@ -3261,16 +3287,16 @@
       <c r="F28" s="3"/>
       <c r="G28" s="4">
         <f>SUM(G5:G27)</f>
-        <v>6395.2149999999983</v>
+        <v>6487.8099999999986</v>
       </c>
       <c r="H28" s="4">
         <f>SUM(H5:H27)*1.043</f>
-        <v>44.468061633333335</v>
+        <v>45.111905533333335</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="5" t="str">
         <f>TEXT(H28/50 * 100, "0.0") &amp; "% of Budget Spent"</f>
-        <v>88.9% of Budget Spent</v>
+        <v>90.2% of Budget Spent</v>
       </c>
     </row>
     <row r="30" spans="2:10">
